--- a/Wishlist.xlsx
+++ b/Wishlist.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F23E22-72FE-40BE-8BB2-0FBF5B0A66A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,8 +19,49 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Item_Nr.</t>
+  </si>
+  <si>
+    <t>Item_Name</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://www.vallejo-farben.de/vallejo-colorshift/galaxy-dust/colorshift-set-galaxy-dust-6x-17ml-VA77092-i.html</t>
+  </si>
+  <si>
+    <t>Vallejo Galaxy Dust</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/Thing-Mary-Elizabeth-Winstead/dp/B005RY7I8G/ref=asc_df_B005RY7I8G/?tag=googshopde-21&amp;linkCode=df0&amp;hvadid=310709436198&amp;hvpos=1o1&amp;hvnetw=g&amp;hvrand=2753618074403794020&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9044680&amp;hvtargid=pla-563291086489&amp;psc=1&amp;th=1&amp;psc=1&amp;tag=&amp;ref=&amp;adgrpid=57332350730&amp;hvpone=&amp;hvptwo=&amp;hvadid=310709436198&amp;hvpos=1o1&amp;hvnetw=g&amp;hvrand=2753618074403794020&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9044680&amp;hvtargid=pla-563291086489</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/Backunterlage-Teigunterlage-Ausrollmatte-Dauerbackmatte-Wiederverwendbar/dp/B07WCT6YSM/ref=sr_1_30?adgrpid=69078024137&amp;gclid=EAIaIQobChMIgcTovPmR5gIVVPlRCh1Dvw5oEAAYASAAEgJxDPD_BwE&amp;hvadid=391639063913&amp;hvdev=c&amp;hvlocphy=9044680&amp;hvnetw=g&amp;hvpos=1t1&amp;hvqmt=e&amp;hvrand=15743294368213920579&amp;hvtargid=kwd-299720884059&amp;hydadcr=15923_1989314&amp;keywords=pastry%2Bmat&amp;qid=1575117385&amp;sr=8-30&amp;th=1</t>
+  </si>
+  <si>
+    <t>The Thing - Bluray</t>
+  </si>
+  <si>
+    <t>Pastry mat</t>
+  </si>
+  <si>
+    <t>https://www.feldherr.com/feldherr-transporter-dseb305-leer-im-set/a-58238</t>
+  </si>
+  <si>
+    <t>Feldherr Transportbox</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -37,7 +79,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -45,15 +87,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +450,250 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="15.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Wishlist.xlsx
+++ b/Wishlist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F23E22-72FE-40BE-8BB2-0FBF5B0A66A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CF2CF8-502D-4E74-8D06-9C7951A11F65}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Item_Nr.</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Feldherr Transportbox</t>
+  </si>
+  <si>
+    <t>Stirnlampe</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -537,8 +540,12 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">

--- a/Wishlist.xlsx
+++ b/Wishlist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CF2CF8-502D-4E74-8D06-9C7951A11F65}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282266F3-DFF0-4C2D-984E-0F6506DBBDC1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Item_Nr.</t>
   </si>
@@ -59,6 +59,21 @@
   </si>
   <si>
     <t>Stirnlampe</t>
+  </si>
+  <si>
+    <t>https://www.bauhaus.info/stirnlampen/profi-depot-stirnlampe/p/25568884</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/s?k=oneplus+6t+panzerglas&amp;__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=2O2D66FWAGP4K&amp;sprefix=oneplus+6t+%2Caps%2C190&amp;ref=nb_sb_ss_i_3_11</t>
+  </si>
+  <si>
+    <t>Rhinoshield solidsuit schutzhülle oneplus 6t</t>
+  </si>
+  <si>
+    <t>Schutzfolie/Panzerglas Oneplus 6t</t>
+  </si>
+  <si>
+    <t>https://rhinoshield.de/pages/shop/OnePlus?device=oneplus-6t&amp;category=solidsuit&amp;collection=solidsuit-android</t>
   </si>
 </sst>
 </file>
@@ -457,12 +472,12 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="90.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -546,23 +561,37 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">

--- a/Wishlist.xlsx
+++ b/Wishlist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282266F3-DFF0-4C2D-984E-0F6506DBBDC1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860D77E4-63D5-494E-9B1A-B61FB141A54F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Item_Nr.</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>https://rhinoshield.de/pages/shop/OnePlus?device=oneplus-6t&amp;category=solidsuit&amp;collection=solidsuit-android</t>
+  </si>
+  <si>
+    <t>army painter - Wet Palette</t>
+  </si>
+  <si>
+    <t>https://www.fantasywelt.de/Army-Painter-Wet-Palette?curr=EUR&amp;gclid=EAIaIQobChMIwKqeoL-35gIVwp13Ch2hQQFnEAQYASABEgLeivD_BwE</t>
   </si>
 </sst>
 </file>
@@ -472,7 +478,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -597,9 +603,15 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
